--- a/templates/Invoice_Template.xlsx
+++ b/templates/Invoice_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amrin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\rahamr00\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828D93F3-4BF0-4BDB-B5B7-9945FB2F353C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030C42CA-3DF3-44AD-B2BE-2C041939AA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F9D08C37-0EFD-4E51-8461-A00E374F23B6}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F9D08C37-0EFD-4E51-8461-A00E374F23B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice Template" sheetId="2" r:id="rId1"/>
@@ -485,6 +485,12 @@
     <xf numFmtId="44" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="15" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -493,6 +499,15 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -506,21 +521,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -552,9 +552,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>674766</xdr:colOff>
+      <xdr:colOff>672861</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>124501</xdr:rowOff>
+      <xdr:rowOff>126406</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -919,53 +919,53 @@
   </sheetPr>
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="41" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.3046875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="2.84375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="3.3046875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.3046875" style="3" customWidth="1"/>
-    <col min="7" max="8" width="11.3046875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.84375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="2.88671875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="3.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="3" customWidth="1"/>
+    <col min="7" max="8" width="11.33203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" style="3" customWidth="1"/>
     <col min="10" max="16384" width="10" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="47.15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="47.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-    </row>
-    <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="40" t="s">
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+    </row>
+    <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
       <c r="J3" s="7"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
@@ -974,7 +974,7 @@
       <c r="D4" s="4"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
@@ -982,11 +982,11 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -996,19 +996,19 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="40" t="s">
+    <row r="7" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
       <c r="D7" s="5"/>
       <c r="E7" s="11"/>
       <c r="G7" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1020,37 +1020,37 @@
       </c>
       <c r="H8" s="14"/>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="42"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="47"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
       <c r="E9" s="11"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="42"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="47"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
       <c r="E10" s="11"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="42"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="47"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
       <c r="E11" s="11"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1060,7 +1060,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1070,7 +1070,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1080,7 +1080,7 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>7</v>
       </c>
@@ -1098,229 +1098,184 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="21"/>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="40"/>
       <c r="F16" s="23"/>
       <c r="G16" s="24"/>
-      <c r="H16" s="25">
-        <f>ItemQty*ItemUnitPrice</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H16" s="25"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="21"/>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="38"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="40"/>
       <c r="F17" s="26"/>
       <c r="G17" s="27"/>
-      <c r="H17" s="25">
-        <f>ItemQty*ItemUnitPrice</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H17" s="25"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="21"/>
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="40"/>
       <c r="F18" s="26"/>
       <c r="G18" s="27"/>
-      <c r="H18" s="25">
-        <f>ItemQty*ItemUnitPrice</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H18" s="25"/>
+    </row>
+    <row r="19" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="21"/>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="38"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="40"/>
       <c r="F19" s="28"/>
       <c r="G19" s="27"/>
-      <c r="H19" s="25">
-        <f>ItemQty*ItemUnitPrice</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H19" s="25"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="21"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="38"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="40"/>
       <c r="F20" s="26"/>
       <c r="G20" s="27"/>
-      <c r="H20" s="25">
-        <f>ItemQty*ItemUnitPrice</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H20" s="25"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="21"/>
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="38"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="40"/>
       <c r="F21" s="26"/>
       <c r="G21" s="27"/>
-      <c r="H21" s="25">
-        <f>ItemQty*ItemUnitPrice</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H21" s="25"/>
+    </row>
+    <row r="22" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="21"/>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="38"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="40"/>
       <c r="F22" s="26"/>
       <c r="G22" s="27"/>
-      <c r="H22" s="25">
-        <f>ItemQty*ItemUnitPrice</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H22" s="25"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="21"/>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="38"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="40"/>
       <c r="F23" s="26"/>
       <c r="G23" s="27"/>
-      <c r="H23" s="25">
-        <f>ItemQty*ItemUnitPrice</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H23" s="25"/>
+    </row>
+    <row r="24" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="21"/>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="38"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="40"/>
       <c r="F24" s="26"/>
       <c r="G24" s="27"/>
-      <c r="H24" s="25">
-        <f>ItemQty*ItemUnitPrice</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H24" s="25"/>
+    </row>
+    <row r="25" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="21"/>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="38"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
       <c r="F25" s="26"/>
       <c r="G25" s="27"/>
-      <c r="H25" s="25">
-        <f>ItemQty*ItemUnitPrice</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H25" s="25"/>
+    </row>
+    <row r="26" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="21"/>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="38"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="40"/>
       <c r="F26" s="26"/>
       <c r="G26" s="27"/>
-      <c r="H26" s="25">
-        <f>ItemQty*ItemUnitPrice</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H26" s="25"/>
+    </row>
+    <row r="27" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="21"/>
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="38"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="40"/>
       <c r="F27" s="26"/>
       <c r="G27" s="27"/>
-      <c r="H27" s="25">
-        <f>ItemQty*ItemUnitPrice</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H27" s="25"/>
+    </row>
+    <row r="28" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="21"/>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="38"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="40"/>
       <c r="F28" s="26"/>
       <c r="G28" s="27"/>
-      <c r="H28" s="25">
-        <f>ItemQty*ItemUnitPrice</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H28" s="25"/>
+    </row>
+    <row r="29" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="21"/>
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="38"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="40"/>
       <c r="F29" s="26"/>
       <c r="G29" s="27"/>
-      <c r="H29" s="25">
-        <f>ItemQty*ItemUnitPrice</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H29" s="25"/>
+    </row>
+    <row r="30" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="21"/>
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="38"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="40"/>
       <c r="F30" s="26"/>
       <c r="G30" s="27"/>
-      <c r="H30" s="25">
-        <f>ItemQty*ItemUnitPrice</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="31" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="44"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="45" t="s">
+      <c r="H30" s="25"/>
+    </row>
+    <row r="31" spans="1:8" s="31" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="41"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="45"/>
+      <c r="G31" s="42"/>
       <c r="H31" s="30">
         <f>SUM(H16:H30)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="32"/>
       <c r="B32" s="33"/>
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
-      <c r="F32" s="45" t="s">
+      <c r="F32" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="45"/>
+      <c r="G32" s="42"/>
       <c r="H32" s="34"/>
     </row>
-    <row r="33" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="32"/>
       <c r="B33" s="33"/>
       <c r="C33" s="33"/>
@@ -1330,7 +1285,7 @@
       <c r="G33" s="29"/>
       <c r="H33" s="30"/>
     </row>
-    <row r="34" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="32"/>
       <c r="B34" s="33"/>
       <c r="C34" s="33"/>
@@ -1340,12 +1295,12 @@
         <v>13</v>
       </c>
       <c r="G34" s="35"/>
-      <c r="H34" s="47">
+      <c r="H34" s="37">
         <f>SUM(H31:H32)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -1355,7 +1310,7 @@
       <c r="G35" s="36"/>
       <c r="H35" s="36"/>
     </row>
-    <row r="36" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -1365,40 +1320,28 @@
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
     </row>
-    <row r="37" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="46"/>
-      <c r="B37" s="46"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="46"/>
-    </row>
-    <row r="38" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="43"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
+    <row r="37" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="43"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+    </row>
+    <row r="38" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="38"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="A37:H37"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="A2:C2"/>
@@ -1412,6 +1355,18 @@
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="A9:D11"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="A37:H37"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{FC64F3BB-3BE7-4AA5-9AD5-3B493185AE41}">

--- a/templates/Invoice_Template.xlsx
+++ b/templates/Invoice_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\rahamr00\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030C42CA-3DF3-44AD-B2BE-2C041939AA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922505B9-20DF-41A3-A374-806B972D4E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F9D08C37-0EFD-4E51-8461-A00E374F23B6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{F9D08C37-0EFD-4E51-8461-A00E374F23B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice Template" sheetId="2" r:id="rId1"/>
@@ -374,7 +374,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -411,9 +411,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -488,17 +485,27 @@
     <xf numFmtId="165" fontId="15" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -508,19 +515,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -920,7 +927,7 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -931,7 +938,8 @@
     <col min="4" max="4" width="2.88671875" style="3" customWidth="1"/>
     <col min="5" max="5" width="3.33203125" style="3" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" style="3" customWidth="1"/>
-    <col min="7" max="8" width="11.33203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.21875" style="3" customWidth="1"/>
     <col min="9" max="9" width="12.88671875" style="3" customWidth="1"/>
     <col min="10" max="16384" width="10" style="3"/>
   </cols>
@@ -942,18 +950,18 @@
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
       <c r="J2" s="6"/>
@@ -982,8 +990,8 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -997,19 +1005,20 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
       <c r="D7" s="5"/>
       <c r="E7" s="11"/>
       <c r="G7" s="12" t="s">
         <v>5</v>
       </c>
+      <c r="H7" s="48"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -1018,7 +1027,7 @@
       <c r="G8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="14"/>
+      <c r="H8" s="49"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="47"/>
@@ -1051,7 +1060,7 @@
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -1081,221 +1090,221 @@
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="19" t="s">
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="20" t="s">
+      <c r="H15" s="19" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="25"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="24"/>
     </row>
     <row r="17" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="21"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="25"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="24"/>
     </row>
     <row r="18" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="21"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="25"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="24"/>
     </row>
     <row r="19" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="25"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="24"/>
     </row>
     <row r="20" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="25"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="24"/>
     </row>
     <row r="21" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="21"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="25"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="24"/>
     </row>
     <row r="22" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="21"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="25"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="24"/>
     </row>
     <row r="23" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="21"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="25"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="24"/>
     </row>
     <row r="24" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="21"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="25"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="24"/>
     </row>
     <row r="25" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="21"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="25"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="24"/>
     </row>
     <row r="26" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="21"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="25"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="24"/>
     </row>
     <row r="27" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="21"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="25"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="24"/>
     </row>
     <row r="28" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="21"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="25"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="24"/>
     </row>
     <row r="29" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="21"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="25"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="24"/>
     </row>
     <row r="30" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="21"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="25"/>
-    </row>
-    <row r="31" spans="1:8" s="31" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="41"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="42" t="s">
+      <c r="A30" s="20"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="24"/>
+    </row>
+    <row r="31" spans="1:8" s="30" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="43"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="42"/>
-      <c r="H31" s="30">
+      <c r="G31" s="44"/>
+      <c r="H31" s="29">
         <f>SUM(H16:H30)</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="32"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="42" t="s">
+      <c r="A32" s="31"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="42"/>
-      <c r="H32" s="34"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="33"/>
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="32"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="30"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="29"/>
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="32"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="35" t="s">
+      <c r="A34" s="31"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="G34" s="35"/>
-      <c r="H34" s="37">
+      <c r="G34" s="34"/>
+      <c r="H34" s="36">
         <f>SUM(H31:H32)</f>
         <v>0</v>
       </c>
@@ -1306,9 +1315,9 @@
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
     </row>
     <row r="36" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
@@ -1321,27 +1330,39 @@
       <c r="H36" s="11"/>
     </row>
     <row r="37" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="43"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
+      <c r="A37" s="45"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
     </row>
     <row r="38" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="38"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
+      <c r="A38" s="42"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="A37:H37"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="A2:C2"/>
@@ -1355,18 +1376,6 @@
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="A9:D11"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="A37:H37"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{FC64F3BB-3BE7-4AA5-9AD5-3B493185AE41}">

--- a/templates/Invoice_Template.xlsx
+++ b/templates/Invoice_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\rahamr00\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922505B9-20DF-41A3-A374-806B972D4E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA5A347-5585-4EDA-A0EC-49A8CA0C713F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{F9D08C37-0EFD-4E51-8461-A00E374F23B6}"/>
   </bookViews>
@@ -28,6 +28,7 @@
     <definedName name="ItemQty">'Invoice Template'!$F$16</definedName>
     <definedName name="ItemRow">'Invoice Template'!$16:$16</definedName>
     <definedName name="ItemUnitPrice">'Invoice Template'!$G$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Invoice Template'!$A$1:$H$34</definedName>
     <definedName name="SubTotal">'Invoice Template'!$H$31</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -214,7 +215,14 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="12"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -222,13 +230,7 @@
     <font>
       <b/>
       <sz val="12"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
+      <color theme="4" tint="-0.499984740745262"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -374,7 +376,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -479,55 +481,58 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="165" fontId="15" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -927,7 +932,7 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -939,7 +944,7 @@
     <col min="5" max="5" width="3.33203125" style="3" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" style="3" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.21875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" style="3" customWidth="1"/>
     <col min="9" max="9" width="12.88671875" style="3" customWidth="1"/>
     <col min="10" max="16384" width="10" style="3"/>
   </cols>
@@ -950,18 +955,18 @@
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
     </row>
     <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
       <c r="J2" s="6"/>
@@ -990,8 +995,8 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1005,20 +1010,20 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
       <c r="D7" s="5"/>
       <c r="E7" s="11"/>
       <c r="G7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="48"/>
+      <c r="H7" s="37"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="46"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -1027,40 +1032,40 @@
       <c r="G8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="49"/>
+      <c r="H8" s="38"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="47"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
       <c r="E9" s="11"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="47"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
       <c r="E10" s="11"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="47"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
       <c r="E11" s="11"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="46"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -1111,8 +1116,8 @@
       <c r="A16" s="20"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="41"/>
       <c r="F16" s="22"/>
       <c r="G16" s="23"/>
       <c r="H16" s="24"/>
@@ -1121,8 +1126,8 @@
       <c r="A17" s="20"/>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="38"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="41"/>
       <c r="F17" s="25"/>
       <c r="G17" s="26"/>
       <c r="H17" s="24"/>
@@ -1131,8 +1136,8 @@
       <c r="A18" s="20"/>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="41"/>
       <c r="F18" s="25"/>
       <c r="G18" s="26"/>
       <c r="H18" s="24"/>
@@ -1141,8 +1146,8 @@
       <c r="A19" s="20"/>
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="38"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="41"/>
       <c r="F19" s="27"/>
       <c r="G19" s="26"/>
       <c r="H19" s="24"/>
@@ -1151,8 +1156,8 @@
       <c r="A20" s="20"/>
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="38"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="41"/>
       <c r="F20" s="25"/>
       <c r="G20" s="26"/>
       <c r="H20" s="24"/>
@@ -1161,8 +1166,8 @@
       <c r="A21" s="20"/>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="38"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="41"/>
       <c r="F21" s="25"/>
       <c r="G21" s="26"/>
       <c r="H21" s="24"/>
@@ -1171,8 +1176,8 @@
       <c r="A22" s="20"/>
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="38"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="41"/>
       <c r="F22" s="25"/>
       <c r="G22" s="26"/>
       <c r="H22" s="24"/>
@@ -1181,8 +1186,8 @@
       <c r="A23" s="20"/>
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="38"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="41"/>
       <c r="F23" s="25"/>
       <c r="G23" s="26"/>
       <c r="H23" s="24"/>
@@ -1191,8 +1196,8 @@
       <c r="A24" s="20"/>
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="38"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="41"/>
       <c r="F24" s="25"/>
       <c r="G24" s="26"/>
       <c r="H24" s="24"/>
@@ -1201,8 +1206,8 @@
       <c r="A25" s="20"/>
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="38"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="41"/>
       <c r="F25" s="25"/>
       <c r="G25" s="26"/>
       <c r="H25" s="24"/>
@@ -1211,8 +1216,8 @@
       <c r="A26" s="20"/>
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="38"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="41"/>
       <c r="F26" s="25"/>
       <c r="G26" s="26"/>
       <c r="H26" s="24"/>
@@ -1221,8 +1226,8 @@
       <c r="A27" s="20"/>
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="38"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="41"/>
       <c r="F27" s="25"/>
       <c r="G27" s="26"/>
       <c r="H27" s="24"/>
@@ -1231,8 +1236,8 @@
       <c r="A28" s="20"/>
       <c r="B28" s="21"/>
       <c r="C28" s="21"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="38"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="41"/>
       <c r="F28" s="25"/>
       <c r="G28" s="26"/>
       <c r="H28" s="24"/>
@@ -1241,8 +1246,8 @@
       <c r="A29" s="20"/>
       <c r="B29" s="21"/>
       <c r="C29" s="21"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="38"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="41"/>
       <c r="F29" s="25"/>
       <c r="G29" s="26"/>
       <c r="H29" s="24"/>
@@ -1251,22 +1256,22 @@
       <c r="A30" s="20"/>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="38"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="41"/>
       <c r="F30" s="25"/>
       <c r="G30" s="26"/>
       <c r="H30" s="24"/>
     </row>
     <row r="31" spans="1:8" s="30" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="43"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="44" t="s">
+      <c r="A31" s="42"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="44"/>
+      <c r="G31" s="43"/>
       <c r="H31" s="29">
         <f>SUM(H16:H30)</f>
         <v>0</v>
@@ -1278,10 +1283,10 @@
       <c r="C32" s="32"/>
       <c r="D32" s="32"/>
       <c r="E32" s="32"/>
-      <c r="F32" s="44" t="s">
+      <c r="F32" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="44"/>
+      <c r="G32" s="43"/>
       <c r="H32" s="33"/>
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1300,11 +1305,11 @@
       <c r="C34" s="32"/>
       <c r="D34" s="32"/>
       <c r="E34" s="32"/>
-      <c r="F34" s="34" t="s">
+      <c r="F34" s="49" t="s">
         <v>13</v>
       </c>
       <c r="G34" s="34"/>
-      <c r="H34" s="36">
+      <c r="H34" s="50">
         <f>SUM(H31:H32)</f>
         <v>0</v>
       </c>
@@ -1330,39 +1335,27 @@
       <c r="H36" s="11"/>
     </row>
     <row r="37" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="45"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
+      <c r="A37" s="44"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
     </row>
     <row r="38" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="42"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="42"/>
+      <c r="A38" s="39"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="A37:H37"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="A2:C2"/>
@@ -1376,6 +1369,18 @@
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="A9:D11"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="A37:H37"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{FC64F3BB-3BE7-4AA5-9AD5-3B493185AE41}">
@@ -1384,7 +1389,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.75" top="0.5" bottom="0.5" header="0.5" footer="0.25"/>
-  <pageSetup scale="78" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="98" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/templates/Invoice_Template.xlsx
+++ b/templates/Invoice_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\rahamr00\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA5A347-5585-4EDA-A0EC-49A8CA0C713F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556EDA7A-158D-47CE-B6D8-D00DDA446A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{F9D08C37-0EFD-4E51-8461-A00E374F23B6}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Invoice Template" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CustomerAddress">'Invoice Template'!$A$9</definedName>
+    <definedName name="CustomerAddress">'Invoice Template'!#REF!</definedName>
     <definedName name="CustomerName">'Invoice Template'!$A$8</definedName>
     <definedName name="CustomerPhone">'Invoice Template'!$A$12</definedName>
     <definedName name="DeliveryFee">'Invoice Template'!$H$32</definedName>
@@ -494,17 +494,33 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -514,25 +530,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -932,7 +931,7 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -955,18 +954,18 @@
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
     </row>
     <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
       <c r="J2" s="6"/>
@@ -995,8 +994,8 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1010,11 +1009,11 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
       <c r="D7" s="5"/>
       <c r="E7" s="11"/>
       <c r="G7" s="12" t="s">
@@ -1034,31 +1033,31 @@
       </c>
       <c r="H8" s="38"/>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="48"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
+    <row r="9" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="50"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
       <c r="E9" s="11"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="48"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
       <c r="E10" s="11"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="48"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
       <c r="E11" s="11"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -1116,8 +1115,8 @@
       <c r="A16" s="20"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="42"/>
       <c r="F16" s="22"/>
       <c r="G16" s="23"/>
       <c r="H16" s="24"/>
@@ -1126,8 +1125,8 @@
       <c r="A17" s="20"/>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="42"/>
       <c r="F17" s="25"/>
       <c r="G17" s="26"/>
       <c r="H17" s="24"/>
@@ -1136,8 +1135,8 @@
       <c r="A18" s="20"/>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="42"/>
       <c r="F18" s="25"/>
       <c r="G18" s="26"/>
       <c r="H18" s="24"/>
@@ -1146,8 +1145,8 @@
       <c r="A19" s="20"/>
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="42"/>
       <c r="F19" s="27"/>
       <c r="G19" s="26"/>
       <c r="H19" s="24"/>
@@ -1156,8 +1155,8 @@
       <c r="A20" s="20"/>
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="42"/>
       <c r="F20" s="25"/>
       <c r="G20" s="26"/>
       <c r="H20" s="24"/>
@@ -1166,8 +1165,8 @@
       <c r="A21" s="20"/>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="42"/>
       <c r="F21" s="25"/>
       <c r="G21" s="26"/>
       <c r="H21" s="24"/>
@@ -1176,8 +1175,8 @@
       <c r="A22" s="20"/>
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="42"/>
       <c r="F22" s="25"/>
       <c r="G22" s="26"/>
       <c r="H22" s="24"/>
@@ -1186,8 +1185,8 @@
       <c r="A23" s="20"/>
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="42"/>
       <c r="F23" s="25"/>
       <c r="G23" s="26"/>
       <c r="H23" s="24"/>
@@ -1196,8 +1195,8 @@
       <c r="A24" s="20"/>
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="42"/>
       <c r="F24" s="25"/>
       <c r="G24" s="26"/>
       <c r="H24" s="24"/>
@@ -1206,8 +1205,8 @@
       <c r="A25" s="20"/>
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="42"/>
       <c r="F25" s="25"/>
       <c r="G25" s="26"/>
       <c r="H25" s="24"/>
@@ -1216,8 +1215,8 @@
       <c r="A26" s="20"/>
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="42"/>
       <c r="F26" s="25"/>
       <c r="G26" s="26"/>
       <c r="H26" s="24"/>
@@ -1226,8 +1225,8 @@
       <c r="A27" s="20"/>
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="42"/>
       <c r="F27" s="25"/>
       <c r="G27" s="26"/>
       <c r="H27" s="24"/>
@@ -1236,8 +1235,8 @@
       <c r="A28" s="20"/>
       <c r="B28" s="21"/>
       <c r="C28" s="21"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="42"/>
       <c r="F28" s="25"/>
       <c r="G28" s="26"/>
       <c r="H28" s="24"/>
@@ -1246,8 +1245,8 @@
       <c r="A29" s="20"/>
       <c r="B29" s="21"/>
       <c r="C29" s="21"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="42"/>
       <c r="F29" s="25"/>
       <c r="G29" s="26"/>
       <c r="H29" s="24"/>
@@ -1256,22 +1255,22 @@
       <c r="A30" s="20"/>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="42"/>
       <c r="F30" s="25"/>
       <c r="G30" s="26"/>
       <c r="H30" s="24"/>
     </row>
     <row r="31" spans="1:8" s="30" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="42"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="43" t="s">
+      <c r="A31" s="47"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="43"/>
+      <c r="G31" s="48"/>
       <c r="H31" s="29">
         <f>SUM(H16:H30)</f>
         <v>0</v>
@@ -1283,10 +1282,10 @@
       <c r="C32" s="32"/>
       <c r="D32" s="32"/>
       <c r="E32" s="32"/>
-      <c r="F32" s="43" t="s">
+      <c r="F32" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="43"/>
+      <c r="G32" s="48"/>
       <c r="H32" s="33"/>
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1305,11 +1304,11 @@
       <c r="C34" s="32"/>
       <c r="D34" s="32"/>
       <c r="E34" s="32"/>
-      <c r="F34" s="49" t="s">
+      <c r="F34" s="39" t="s">
         <v>13</v>
       </c>
       <c r="G34" s="34"/>
-      <c r="H34" s="50">
+      <c r="H34" s="40">
         <f>SUM(H31:H32)</f>
         <v>0</v>
       </c>
@@ -1335,27 +1334,39 @@
       <c r="H36" s="11"/>
     </row>
     <row r="37" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="44"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
+      <c r="A37" s="49"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
     </row>
     <row r="38" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="39"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
+      <c r="A38" s="46"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="A37:H37"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="A2:C2"/>
@@ -1368,19 +1379,7 @@
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A9:D11"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{FC64F3BB-3BE7-4AA5-9AD5-3B493185AE41}">

--- a/templates/Invoice_Template.xlsx
+++ b/templates/Invoice_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\rahamr00\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556EDA7A-158D-47CE-B6D8-D00DDA446A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BB32E1-8BA0-4D12-BBA2-B6701DB69534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{F9D08C37-0EFD-4E51-8461-A00E374F23B6}"/>
   </bookViews>
@@ -100,11 +100,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="_-[$฿-41E]* #,##0.00_-;\-[$฿-41E]* #,##0.00_-;_-[$฿-41E]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-[$฿-41E]* #,##0_-;\-[$฿-41E]* #,##0_-;_-[$฿-41E]* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -376,7 +375,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -475,9 +474,6 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="13" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -497,7 +493,7 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -518,6 +514,9 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -529,9 +528,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -931,7 +927,7 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -954,18 +950,18 @@
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
       <c r="J2" s="6"/>
@@ -994,8 +990,8 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1009,20 +1005,20 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
       <c r="D7" s="5"/>
       <c r="E7" s="11"/>
       <c r="G7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="37"/>
+      <c r="H7" s="36"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="36"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -1031,10 +1027,10 @@
       <c r="G8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="38"/>
+      <c r="H8" s="37"/>
     </row>
     <row r="9" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="50"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -1044,7 +1040,7 @@
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="50"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -1064,7 +1060,7 @@
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="36"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -1115,8 +1111,8 @@
       <c r="A16" s="20"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="42"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="41"/>
       <c r="F16" s="22"/>
       <c r="G16" s="23"/>
       <c r="H16" s="24"/>
@@ -1125,8 +1121,8 @@
       <c r="A17" s="20"/>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="42"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="41"/>
       <c r="F17" s="25"/>
       <c r="G17" s="26"/>
       <c r="H17" s="24"/>
@@ -1135,8 +1131,8 @@
       <c r="A18" s="20"/>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="42"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="41"/>
       <c r="F18" s="25"/>
       <c r="G18" s="26"/>
       <c r="H18" s="24"/>
@@ -1145,8 +1141,8 @@
       <c r="A19" s="20"/>
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="42"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="41"/>
       <c r="F19" s="27"/>
       <c r="G19" s="26"/>
       <c r="H19" s="24"/>
@@ -1155,8 +1151,8 @@
       <c r="A20" s="20"/>
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="42"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="41"/>
       <c r="F20" s="25"/>
       <c r="G20" s="26"/>
       <c r="H20" s="24"/>
@@ -1165,8 +1161,8 @@
       <c r="A21" s="20"/>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="42"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="41"/>
       <c r="F21" s="25"/>
       <c r="G21" s="26"/>
       <c r="H21" s="24"/>
@@ -1175,8 +1171,8 @@
       <c r="A22" s="20"/>
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="42"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="41"/>
       <c r="F22" s="25"/>
       <c r="G22" s="26"/>
       <c r="H22" s="24"/>
@@ -1185,8 +1181,8 @@
       <c r="A23" s="20"/>
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="42"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="41"/>
       <c r="F23" s="25"/>
       <c r="G23" s="26"/>
       <c r="H23" s="24"/>
@@ -1195,8 +1191,8 @@
       <c r="A24" s="20"/>
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="42"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="41"/>
       <c r="F24" s="25"/>
       <c r="G24" s="26"/>
       <c r="H24" s="24"/>
@@ -1205,8 +1201,8 @@
       <c r="A25" s="20"/>
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="42"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="41"/>
       <c r="F25" s="25"/>
       <c r="G25" s="26"/>
       <c r="H25" s="24"/>
@@ -1215,8 +1211,8 @@
       <c r="A26" s="20"/>
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="42"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="41"/>
       <c r="F26" s="25"/>
       <c r="G26" s="26"/>
       <c r="H26" s="24"/>
@@ -1225,8 +1221,8 @@
       <c r="A27" s="20"/>
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="42"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="41"/>
       <c r="F27" s="25"/>
       <c r="G27" s="26"/>
       <c r="H27" s="24"/>
@@ -1235,8 +1231,8 @@
       <c r="A28" s="20"/>
       <c r="B28" s="21"/>
       <c r="C28" s="21"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="42"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="41"/>
       <c r="F28" s="25"/>
       <c r="G28" s="26"/>
       <c r="H28" s="24"/>
@@ -1245,8 +1241,8 @@
       <c r="A29" s="20"/>
       <c r="B29" s="21"/>
       <c r="C29" s="21"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="42"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="41"/>
       <c r="F29" s="25"/>
       <c r="G29" s="26"/>
       <c r="H29" s="24"/>
@@ -1255,8 +1251,8 @@
       <c r="A30" s="20"/>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="42"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="41"/>
       <c r="F30" s="25"/>
       <c r="G30" s="26"/>
       <c r="H30" s="24"/>
@@ -1271,7 +1267,7 @@
         <v>11</v>
       </c>
       <c r="G31" s="48"/>
-      <c r="H31" s="29">
+      <c r="H31" s="39">
         <f>SUM(H16:H30)</f>
         <v>0</v>
       </c>
@@ -1286,7 +1282,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="48"/>
-      <c r="H32" s="33"/>
+      <c r="H32" s="39"/>
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="31"/>
@@ -1304,11 +1300,11 @@
       <c r="C34" s="32"/>
       <c r="D34" s="32"/>
       <c r="E34" s="32"/>
-      <c r="F34" s="39" t="s">
+      <c r="F34" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="G34" s="34"/>
-      <c r="H34" s="40">
+      <c r="G34" s="33"/>
+      <c r="H34" s="39">
         <f>SUM(H31:H32)</f>
         <v>0</v>
       </c>
@@ -1319,9 +1315,9 @@
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
     </row>
     <row r="36" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>

--- a/templates/Invoice_Template.xlsx
+++ b/templates/Invoice_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\rahamr00\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BB32E1-8BA0-4D12-BBA2-B6701DB69534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7BF37B-E3E9-4339-BD4C-66741A9B68C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{F9D08C37-0EFD-4E51-8461-A00E374F23B6}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F9D08C37-0EFD-4E51-8461-A00E374F23B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice Template" sheetId="2" r:id="rId1"/>
@@ -375,7 +375,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -430,37 +430,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -496,13 +465,17 @@
     <xf numFmtId="164" fontId="15" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -517,17 +490,48 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -559,9 +563,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>672861</xdr:colOff>
+      <xdr:colOff>669051</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>126406</xdr:rowOff>
+      <xdr:rowOff>130216</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -927,7 +931,7 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -950,18 +954,18 @@
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
       <c r="J2" s="6"/>
@@ -990,8 +994,8 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1005,20 +1009,20 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
       <c r="D7" s="5"/>
       <c r="E7" s="11"/>
       <c r="G7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="36"/>
+      <c r="H7" s="28"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="35"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -1027,10 +1031,10 @@
       <c r="G8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="37"/>
+      <c r="H8" s="29"/>
     </row>
     <row r="9" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="45"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -1040,7 +1044,7 @@
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="45"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -1060,7 +1064,7 @@
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="35"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -1108,203 +1112,203 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="24"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="47"/>
     </row>
     <row r="17" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="24"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="47"/>
     </row>
     <row r="18" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="24"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="47"/>
     </row>
     <row r="19" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="24"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="47"/>
     </row>
     <row r="20" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="24"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="47"/>
     </row>
     <row r="21" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="24"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="47"/>
     </row>
     <row r="22" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="24"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="47"/>
     </row>
     <row r="23" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="20"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="24"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="47"/>
     </row>
     <row r="24" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="24"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="47"/>
     </row>
     <row r="25" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="24"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="47"/>
     </row>
     <row r="26" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="20"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="24"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="47"/>
     </row>
     <row r="27" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="20"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="24"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="47"/>
     </row>
     <row r="28" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="20"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="24"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="47"/>
     </row>
     <row r="29" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="20"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="24"/>
+      <c r="A29" s="41"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="47"/>
     </row>
     <row r="30" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="20"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="24"/>
-    </row>
-    <row r="31" spans="1:8" s="30" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="47"/>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="48" t="s">
+      <c r="A30" s="41"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="47"/>
+    </row>
+    <row r="31" spans="1:8" s="22" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="33"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="48"/>
-      <c r="H31" s="39">
+      <c r="G31" s="34"/>
+      <c r="H31" s="31">
         <f>SUM(H16:H30)</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="31"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="48" t="s">
+      <c r="A32" s="23"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="48"/>
-      <c r="H32" s="39"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="31"/>
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="31"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="29"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="31"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="38" t="s">
+      <c r="A34" s="23"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G34" s="33"/>
-      <c r="H34" s="39">
+      <c r="G34" s="25"/>
+      <c r="H34" s="31">
         <f>SUM(H31:H32)</f>
         <v>0</v>
       </c>
@@ -1315,9 +1319,9 @@
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
     </row>
     <row r="36" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
@@ -1330,39 +1334,27 @@
       <c r="H36" s="11"/>
     </row>
     <row r="37" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="49"/>
-      <c r="B37" s="49"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="49"/>
+      <c r="A37" s="35"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
     </row>
     <row r="38" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="46"/>
-      <c r="B38" s="46"/>
-      <c r="C38" s="46"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="46"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="46"/>
+      <c r="A38" s="32"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="A37:H37"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="A2:C2"/>
@@ -1376,6 +1368,18 @@
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="A37:H37"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{FC64F3BB-3BE7-4AA5-9AD5-3B493185AE41}">

--- a/templates/Invoice_Template.xlsx
+++ b/templates/Invoice_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\rahamr00\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7BF37B-E3E9-4339-BD4C-66741A9B68C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA55E709-8FF4-4277-9621-7A89C4E1283E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F9D08C37-0EFD-4E51-8461-A00E374F23B6}"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="Invoice Template" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CustomerAddress">'Invoice Template'!#REF!</definedName>
-    <definedName name="CustomerName">'Invoice Template'!$A$8</definedName>
-    <definedName name="CustomerPhone">'Invoice Template'!$A$12</definedName>
+    <definedName name="CustomerAddress">'Invoice Template'!$A$10</definedName>
+    <definedName name="CustomerName">'Invoice Template'!$A$9</definedName>
+    <definedName name="CustomerPhone">'Invoice Template'!$A$11</definedName>
     <definedName name="DeliveryFee">'Invoice Template'!$H$32</definedName>
     <definedName name="GrandTotal">'Invoice Template'!$H$34</definedName>
     <definedName name="InvoiceDate">'Invoice Template'!$H$8</definedName>
@@ -375,7 +375,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -453,18 +453,65 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -477,61 +524,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="13" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -563,9 +566,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>669051</xdr:colOff>
+      <xdr:colOff>665241</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>130216</xdr:rowOff>
+      <xdr:rowOff>134026</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -931,7 +934,7 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -954,18 +957,18 @@
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
     </row>
     <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
       <c r="J2" s="6"/>
@@ -994,8 +997,8 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1009,20 +1012,20 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
       <c r="D7" s="5"/>
       <c r="E7" s="11"/>
       <c r="G7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="28"/>
+      <c r="H7" s="49"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="40"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -1031,10 +1034,10 @@
       <c r="G8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="29"/>
+      <c r="H8" s="50"/>
     </row>
     <row r="9" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="39"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -1044,7 +1047,7 @@
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="39"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -1112,166 +1115,166 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="41"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="47"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="35"/>
     </row>
     <row r="17" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="41"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="47"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="35"/>
     </row>
     <row r="18" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="41"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="47"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="35"/>
     </row>
     <row r="19" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="41"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="47"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="35"/>
     </row>
     <row r="20" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="41"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="47"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="35"/>
     </row>
     <row r="21" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="41"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="47"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="35"/>
     </row>
     <row r="22" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="41"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="47"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="35"/>
     </row>
     <row r="23" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="41"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="47"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="35"/>
     </row>
     <row r="24" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="41"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="47"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="35"/>
     </row>
     <row r="25" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="41"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="47"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="35"/>
     </row>
     <row r="26" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="41"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="47"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="35"/>
     </row>
     <row r="27" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="41"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="47"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="35"/>
     </row>
     <row r="28" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="41"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="47"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="35"/>
     </row>
     <row r="29" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="41"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="47"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="35"/>
     </row>
     <row r="30" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="41"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="47"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="35"/>
     </row>
     <row r="31" spans="1:8" s="22" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="33"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="34" t="s">
+      <c r="A31" s="45"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="34"/>
-      <c r="H31" s="31">
+      <c r="G31" s="46"/>
+      <c r="H31" s="51">
         <f>SUM(H16:H30)</f>
         <v>0</v>
       </c>
@@ -1282,11 +1285,11 @@
       <c r="C32" s="24"/>
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
-      <c r="F32" s="34" t="s">
+      <c r="F32" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="34"/>
-      <c r="H32" s="31"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="51"/>
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="23"/>
@@ -1304,11 +1307,11 @@
       <c r="C34" s="24"/>
       <c r="D34" s="24"/>
       <c r="E34" s="24"/>
-      <c r="F34" s="30" t="s">
+      <c r="F34" s="28" t="s">
         <v>13</v>
       </c>
       <c r="G34" s="25"/>
-      <c r="H34" s="31">
+      <c r="H34" s="29">
         <f>SUM(H31:H32)</f>
         <v>0</v>
       </c>
@@ -1334,27 +1337,39 @@
       <c r="H36" s="11"/>
     </row>
     <row r="37" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="35"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
+      <c r="A37" s="47"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
     </row>
     <row r="38" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="32"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
+      <c r="A38" s="44"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="24">
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="A37:H37"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="A2:C2"/>
@@ -1367,19 +1382,6 @@
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="A37:H37"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{FC64F3BB-3BE7-4AA5-9AD5-3B493185AE41}">

--- a/templates/Invoice_Template.xlsx
+++ b/templates/Invoice_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\rahamr00\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA55E709-8FF4-4277-9621-7A89C4E1283E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11EBCD99-5115-4F95-82EC-597A233A8167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F9D08C37-0EFD-4E51-8461-A00E374F23B6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{F9D08C37-0EFD-4E51-8461-A00E374F23B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice Template" sheetId="2" r:id="rId1"/>
@@ -494,6 +494,21 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -502,6 +517,15 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -511,30 +535,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -934,7 +934,7 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -957,18 +957,18 @@
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
       <c r="J2" s="6"/>
@@ -997,8 +997,8 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1012,17 +1012,17 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
       <c r="D7" s="5"/>
       <c r="E7" s="11"/>
       <c r="G7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="49"/>
+      <c r="H7" s="40"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30"/>
@@ -1034,10 +1034,10 @@
       <c r="G8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="50"/>
+      <c r="H8" s="41"/>
     </row>
     <row r="9" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="48"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -1047,7 +1047,7 @@
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="48"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -1118,8 +1118,8 @@
       <c r="A16" s="31"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="40"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="45"/>
       <c r="F16" s="33"/>
       <c r="G16" s="34"/>
       <c r="H16" s="35"/>
@@ -1128,8 +1128,8 @@
       <c r="A17" s="31"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="40"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="45"/>
       <c r="F17" s="36"/>
       <c r="G17" s="37"/>
       <c r="H17" s="35"/>
@@ -1138,8 +1138,8 @@
       <c r="A18" s="31"/>
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="40"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="45"/>
       <c r="F18" s="36"/>
       <c r="G18" s="37"/>
       <c r="H18" s="35"/>
@@ -1148,8 +1148,8 @@
       <c r="A19" s="31"/>
       <c r="B19" s="32"/>
       <c r="C19" s="32"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="40"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="45"/>
       <c r="F19" s="38"/>
       <c r="G19" s="37"/>
       <c r="H19" s="35"/>
@@ -1158,8 +1158,8 @@
       <c r="A20" s="31"/>
       <c r="B20" s="32"/>
       <c r="C20" s="32"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="40"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="45"/>
       <c r="F20" s="36"/>
       <c r="G20" s="37"/>
       <c r="H20" s="35"/>
@@ -1168,8 +1168,8 @@
       <c r="A21" s="31"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="40"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="45"/>
       <c r="F21" s="36"/>
       <c r="G21" s="37"/>
       <c r="H21" s="35"/>
@@ -1178,8 +1178,8 @@
       <c r="A22" s="31"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="40"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="45"/>
       <c r="F22" s="36"/>
       <c r="G22" s="37"/>
       <c r="H22" s="35"/>
@@ -1188,8 +1188,8 @@
       <c r="A23" s="31"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="40"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="45"/>
       <c r="F23" s="36"/>
       <c r="G23" s="37"/>
       <c r="H23" s="35"/>
@@ -1198,8 +1198,8 @@
       <c r="A24" s="31"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="40"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="45"/>
       <c r="F24" s="36"/>
       <c r="G24" s="37"/>
       <c r="H24" s="35"/>
@@ -1208,8 +1208,8 @@
       <c r="A25" s="31"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="40"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="45"/>
       <c r="F25" s="36"/>
       <c r="G25" s="37"/>
       <c r="H25" s="35"/>
@@ -1218,8 +1218,8 @@
       <c r="A26" s="31"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="40"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="45"/>
       <c r="F26" s="36"/>
       <c r="G26" s="37"/>
       <c r="H26" s="35"/>
@@ -1228,8 +1228,8 @@
       <c r="A27" s="31"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="40"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="45"/>
       <c r="F27" s="36"/>
       <c r="G27" s="37"/>
       <c r="H27" s="35"/>
@@ -1238,8 +1238,8 @@
       <c r="A28" s="31"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="40"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="45"/>
       <c r="F28" s="36"/>
       <c r="G28" s="37"/>
       <c r="H28" s="35"/>
@@ -1248,8 +1248,8 @@
       <c r="A29" s="31"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="40"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="45"/>
       <c r="F29" s="36"/>
       <c r="G29" s="37"/>
       <c r="H29" s="35"/>
@@ -1258,23 +1258,23 @@
       <c r="A30" s="31"/>
       <c r="B30" s="32"/>
       <c r="C30" s="32"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="40"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="45"/>
       <c r="F30" s="36"/>
       <c r="G30" s="37"/>
       <c r="H30" s="35"/>
     </row>
     <row r="31" spans="1:8" s="22" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="45"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="46" t="s">
+      <c r="A31" s="46"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="46"/>
-      <c r="H31" s="51">
+      <c r="G31" s="47"/>
+      <c r="H31" s="42">
         <f>SUM(H16:H30)</f>
         <v>0</v>
       </c>
@@ -1285,11 +1285,11 @@
       <c r="C32" s="24"/>
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
-      <c r="F32" s="46" t="s">
+      <c r="F32" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="46"/>
-      <c r="H32" s="51"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="42"/>
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="23"/>
@@ -1337,27 +1337,39 @@
       <c r="H36" s="11"/>
     </row>
     <row r="37" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="47"/>
-      <c r="B37" s="47"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
+      <c r="A37" s="48"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
     </row>
     <row r="38" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="44"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
+      <c r="A38" s="43"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="A38:H38"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D25:E25"/>
@@ -1370,18 +1382,6 @@
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="A37:H37"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{FC64F3BB-3BE7-4AA5-9AD5-3B493185AE41}">

--- a/templates/Invoice_Template.xlsx
+++ b/templates/Invoice_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\rahamr00\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11EBCD99-5115-4F95-82EC-597A233A8167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E98AF1A-2574-4CE0-983E-54A4E0DF7B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{F9D08C37-0EFD-4E51-8461-A00E374F23B6}"/>
   </bookViews>
@@ -273,7 +273,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -351,21 +351,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -375,7 +360,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -482,18 +467,6 @@
     <xf numFmtId="43" fontId="6" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -505,9 +478,6 @@
     </xf>
     <xf numFmtId="164" fontId="13" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -517,15 +487,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -535,6 +496,18 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -934,7 +907,7 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -957,18 +930,18 @@
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
       <c r="J2" s="6"/>
@@ -997,8 +970,8 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1012,17 +985,17 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
       <c r="D7" s="5"/>
       <c r="E7" s="11"/>
       <c r="G7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="40"/>
+      <c r="H7" s="37"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30"/>
@@ -1034,10 +1007,10 @@
       <c r="G8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="41"/>
+      <c r="H8" s="38"/>
     </row>
     <row r="9" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="39"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -1047,7 +1020,7 @@
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="39"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -1118,8 +1091,8 @@
       <c r="A16" s="31"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="45"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="41"/>
       <c r="F16" s="33"/>
       <c r="G16" s="34"/>
       <c r="H16" s="35"/>
@@ -1128,140 +1101,140 @@
       <c r="A17" s="31"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="37"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="34"/>
       <c r="H17" s="35"/>
     </row>
     <row r="18" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="31"/>
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="37"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="34"/>
       <c r="H18" s="35"/>
     </row>
     <row r="19" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="31"/>
       <c r="B19" s="32"/>
       <c r="C19" s="32"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="37"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="34"/>
       <c r="H19" s="35"/>
     </row>
     <row r="20" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="31"/>
       <c r="B20" s="32"/>
       <c r="C20" s="32"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="37"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="34"/>
       <c r="H20" s="35"/>
     </row>
     <row r="21" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="31"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="37"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="34"/>
       <c r="H21" s="35"/>
     </row>
     <row r="22" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="31"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="37"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="34"/>
       <c r="H22" s="35"/>
     </row>
     <row r="23" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="31"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="37"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="34"/>
       <c r="H23" s="35"/>
     </row>
     <row r="24" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="31"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="37"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="34"/>
       <c r="H24" s="35"/>
     </row>
     <row r="25" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="31"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="37"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="34"/>
       <c r="H25" s="35"/>
     </row>
     <row r="26" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="31"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="37"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="34"/>
       <c r="H26" s="35"/>
     </row>
     <row r="27" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="31"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="37"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="34"/>
       <c r="H27" s="35"/>
     </row>
     <row r="28" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="31"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="37"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="34"/>
       <c r="H28" s="35"/>
     </row>
     <row r="29" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="31"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="37"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="34"/>
       <c r="H29" s="35"/>
     </row>
     <row r="30" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="31"/>
       <c r="B30" s="32"/>
       <c r="C30" s="32"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="37"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="34"/>
       <c r="H30" s="35"/>
     </row>
     <row r="31" spans="1:8" s="22" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1274,7 +1247,7 @@
         <v>11</v>
       </c>
       <c r="G31" s="47"/>
-      <c r="H31" s="42">
+      <c r="H31" s="39">
         <f>SUM(H16:H30)</f>
         <v>0</v>
       </c>
@@ -1289,7 +1262,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="47"/>
-      <c r="H32" s="42"/>
+      <c r="H32" s="39"/>
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="23"/>
@@ -1347,17 +1320,29 @@
       <c r="H37" s="48"/>
     </row>
     <row r="38" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="43"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
+      <c r="A38" s="45"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="A37:H37"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="A2:C2"/>
@@ -1370,18 +1355,6 @@
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="A37:H37"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{FC64F3BB-3BE7-4AA5-9AD5-3B493185AE41}">

--- a/templates/Invoice_Template.xlsx
+++ b/templates/Invoice_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\rahamr00\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E98AF1A-2574-4CE0-983E-54A4E0DF7B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F2C2AC-B5A2-4BB6-A590-C0E71F797AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{F9D08C37-0EFD-4E51-8461-A00E374F23B6}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F9D08C37-0EFD-4E51-8461-A00E374F23B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice Template" sheetId="2" r:id="rId1"/>
@@ -228,8 +228,7 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="4" tint="-0.499984740745262"/>
+      <sz val="14"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -360,7 +359,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -438,12 +437,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -456,10 +449,6 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="43" fontId="6" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
@@ -479,6 +468,9 @@
     <xf numFmtId="164" fontId="13" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -487,6 +479,15 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -497,17 +498,12 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -533,13 +529,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>88898</xdr:colOff>
+      <xdr:colOff>353693</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>164499</xdr:rowOff>
+      <xdr:rowOff>172119</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>665241</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>15636</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>134026</xdr:rowOff>
     </xdr:to>
@@ -570,8 +566,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4954812" y="163138"/>
-          <a:ext cx="1390047" cy="1350656"/>
+          <a:off x="5078093" y="172119"/>
+          <a:ext cx="1370728" cy="1352557"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -907,7 +903,7 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -930,18 +926,18 @@
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
     </row>
     <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
       <c r="J2" s="6"/>
@@ -970,8 +966,8 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -985,20 +981,20 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
       <c r="D7" s="5"/>
       <c r="E7" s="11"/>
       <c r="G7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="37"/>
+      <c r="H7" s="34"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -1007,10 +1003,10 @@
       <c r="G8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="38"/>
+      <c r="H8" s="35"/>
     </row>
     <row r="9" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="36"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -1020,7 +1016,7 @@
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="36"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -1088,166 +1084,166 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="35"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="32"/>
     </row>
     <row r="17" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="35"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="32"/>
     </row>
     <row r="18" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="31"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="35"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="32"/>
     </row>
     <row r="19" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="31"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="35"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="32"/>
     </row>
     <row r="20" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="31"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="35"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="32"/>
     </row>
     <row r="21" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="31"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="35"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="32"/>
     </row>
     <row r="22" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="31"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="35"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="32"/>
     </row>
     <row r="23" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="31"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="35"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="32"/>
     </row>
     <row r="24" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="31"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="35"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="32"/>
     </row>
     <row r="25" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="31"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="35"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="32"/>
     </row>
     <row r="26" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="31"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="35"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="32"/>
     </row>
     <row r="27" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="31"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="35"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="32"/>
     </row>
     <row r="28" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="31"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="35"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="32"/>
     </row>
     <row r="29" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="31"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="35"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="32"/>
     </row>
     <row r="30" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="31"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="35"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="32"/>
     </row>
     <row r="31" spans="1:8" s="22" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="46"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="47" t="s">
+      <c r="A31" s="40"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="47"/>
-      <c r="H31" s="39">
+      <c r="G31" s="41"/>
+      <c r="H31" s="36">
         <f>SUM(H16:H30)</f>
         <v>0</v>
       </c>
@@ -1258,11 +1254,11 @@
       <c r="C32" s="24"/>
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
-      <c r="F32" s="47" t="s">
+      <c r="F32" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="47"/>
-      <c r="H32" s="39"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="36"/>
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="23"/>
@@ -1280,11 +1276,11 @@
       <c r="C34" s="24"/>
       <c r="D34" s="24"/>
       <c r="E34" s="24"/>
-      <c r="F34" s="28" t="s">
+      <c r="F34" s="25" t="s">
         <v>13</v>
       </c>
       <c r="G34" s="25"/>
-      <c r="H34" s="29">
+      <c r="H34" s="47">
         <f>SUM(H31:H32)</f>
         <v>0</v>
       </c>
@@ -1310,27 +1306,39 @@
       <c r="H36" s="11"/>
     </row>
     <row r="37" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="48"/>
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48"/>
+      <c r="A37" s="42"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
     </row>
     <row r="38" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="45"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="45"/>
-      <c r="H38" s="45"/>
+      <c r="A38" s="37"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="A38:H38"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D25:E25"/>
@@ -1343,18 +1351,6 @@
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="A37:H37"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{FC64F3BB-3BE7-4AA5-9AD5-3B493185AE41}">

--- a/templates/Invoice_Template.xlsx
+++ b/templates/Invoice_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\rahamr00\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F2C2AC-B5A2-4BB6-A590-C0E71F797AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF44368F-91DC-48AC-A5C5-3C2390146B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F9D08C37-0EFD-4E51-8461-A00E374F23B6}"/>
   </bookViews>
@@ -468,8 +468,12 @@
     <xf numFmtId="164" fontId="13" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -479,15 +483,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -498,12 +493,17 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -529,13 +529,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>353693</xdr:colOff>
+      <xdr:colOff>336548</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>172119</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>15636</xdr:colOff>
+      <xdr:colOff>2301</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>134026</xdr:rowOff>
     </xdr:to>
@@ -566,8 +566,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5078093" y="172119"/>
-          <a:ext cx="1370728" cy="1352557"/>
+          <a:off x="5060948" y="172119"/>
+          <a:ext cx="1380253" cy="1352557"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -903,7 +903,7 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -926,18 +926,18 @@
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
     </row>
     <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
       <c r="J2" s="6"/>
@@ -966,8 +966,8 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -981,11 +981,11 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
       <c r="D7" s="5"/>
       <c r="E7" s="11"/>
       <c r="G7" s="12" t="s">
@@ -1087,9 +1087,9 @@
       <c r="A16" s="29"/>
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="46"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="37"/>
       <c r="G16" s="31"/>
       <c r="H16" s="32"/>
     </row>
@@ -1097,9 +1097,9 @@
       <c r="A17" s="29"/>
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="46"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="37"/>
       <c r="G17" s="31"/>
       <c r="H17" s="32"/>
     </row>
@@ -1107,9 +1107,9 @@
       <c r="A18" s="29"/>
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="46"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="37"/>
       <c r="G18" s="31"/>
       <c r="H18" s="32"/>
     </row>
@@ -1117,9 +1117,9 @@
       <c r="A19" s="29"/>
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="46"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="37"/>
       <c r="G19" s="31"/>
       <c r="H19" s="32"/>
     </row>
@@ -1127,9 +1127,9 @@
       <c r="A20" s="29"/>
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="46"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="37"/>
       <c r="G20" s="31"/>
       <c r="H20" s="32"/>
     </row>
@@ -1137,9 +1137,9 @@
       <c r="A21" s="29"/>
       <c r="B21" s="30"/>
       <c r="C21" s="30"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="46"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="37"/>
       <c r="G21" s="31"/>
       <c r="H21" s="32"/>
     </row>
@@ -1147,9 +1147,9 @@
       <c r="A22" s="29"/>
       <c r="B22" s="30"/>
       <c r="C22" s="30"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="46"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="37"/>
       <c r="G22" s="31"/>
       <c r="H22" s="32"/>
     </row>
@@ -1157,9 +1157,9 @@
       <c r="A23" s="29"/>
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="46"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="37"/>
       <c r="G23" s="31"/>
       <c r="H23" s="32"/>
     </row>
@@ -1167,9 +1167,9 @@
       <c r="A24" s="29"/>
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="46"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="37"/>
       <c r="G24" s="31"/>
       <c r="H24" s="32"/>
     </row>
@@ -1177,9 +1177,9 @@
       <c r="A25" s="29"/>
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="46"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="37"/>
       <c r="G25" s="31"/>
       <c r="H25" s="32"/>
     </row>
@@ -1187,9 +1187,9 @@
       <c r="A26" s="29"/>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="46"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="37"/>
       <c r="G26" s="31"/>
       <c r="H26" s="32"/>
     </row>
@@ -1197,9 +1197,9 @@
       <c r="A27" s="29"/>
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="46"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="37"/>
       <c r="G27" s="31"/>
       <c r="H27" s="32"/>
     </row>
@@ -1207,9 +1207,9 @@
       <c r="A28" s="29"/>
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="46"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="37"/>
       <c r="G28" s="31"/>
       <c r="H28" s="32"/>
     </row>
@@ -1217,9 +1217,9 @@
       <c r="A29" s="29"/>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="46"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="37"/>
       <c r="G29" s="31"/>
       <c r="H29" s="32"/>
     </row>
@@ -1227,22 +1227,22 @@
       <c r="A30" s="29"/>
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="46"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="37"/>
       <c r="G30" s="31"/>
       <c r="H30" s="32"/>
     </row>
     <row r="31" spans="1:8" s="22" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="40"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="41" t="s">
+      <c r="A31" s="45"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="41"/>
+      <c r="G31" s="46"/>
       <c r="H31" s="36">
         <f>SUM(H16:H30)</f>
         <v>0</v>
@@ -1254,10 +1254,10 @@
       <c r="C32" s="24"/>
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
-      <c r="F32" s="41" t="s">
+      <c r="F32" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="41"/>
+      <c r="G32" s="46"/>
       <c r="H32" s="36"/>
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1280,7 +1280,7 @@
         <v>13</v>
       </c>
       <c r="G34" s="25"/>
-      <c r="H34" s="47">
+      <c r="H34" s="38">
         <f>SUM(H31:H32)</f>
         <v>0</v>
       </c>
@@ -1306,27 +1306,39 @@
       <c r="H36" s="11"/>
     </row>
     <row r="37" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="42"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
+      <c r="A37" s="47"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
     </row>
     <row r="38" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="37"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
+      <c r="A38" s="44"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="A37:H37"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="A2:C2"/>
@@ -1339,18 +1351,6 @@
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="A37:H37"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{FC64F3BB-3BE7-4AA5-9AD5-3B493185AE41}">

--- a/templates/Invoice_Template.xlsx
+++ b/templates/Invoice_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\rahamr00\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amrin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF44368F-91DC-48AC-A5C5-3C2390146B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584E4A77-898F-4791-B8EE-0C6885D1A064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F9D08C37-0EFD-4E51-8461-A00E374F23B6}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{F9D08C37-0EFD-4E51-8461-A00E374F23B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice Template" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <definedName name="ItemQty">'Invoice Template'!$F$16</definedName>
     <definedName name="ItemRow">'Invoice Template'!$16:$16</definedName>
     <definedName name="ItemUnitPrice">'Invoice Template'!$G$16</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Invoice Template'!$A$1:$H$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Invoice Template'!$A$1:$H$43</definedName>
     <definedName name="SubTotal">'Invoice Template'!$H$31</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>INVOICE</t>
   </si>
@@ -94,16 +94,26 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Payment:</t>
+  </si>
+  <si>
+    <t>Promptpay QR:</t>
+  </si>
+  <si>
+    <t>Promptpay ID: 0982841569</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-[$฿-41E]* #,##0_-;\-[$฿-41E]* #,##0_-;_-[$฿-41E]* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -359,7 +369,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -462,9 +472,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="13" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -475,6 +482,9 @@
     <xf numFmtId="164" fontId="17" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -483,6 +493,15 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -493,17 +512,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -529,15 +542,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>336548</xdr:colOff>
+      <xdr:colOff>409575</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>172119</xdr:rowOff>
+      <xdr:rowOff>169398</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>2301</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>134026</xdr:rowOff>
+      <xdr:rowOff>131305</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -566,8 +579,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5060948" y="172119"/>
-          <a:ext cx="1380253" cy="1352557"/>
+          <a:off x="5276850" y="169398"/>
+          <a:ext cx="1364376" cy="1352557"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1567583</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>114340</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13B11A42-0CBD-7490-5404-C9B0F23AE8A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76201" y="8349343"/>
+          <a:ext cx="1491382" cy="1529483"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -903,53 +960,53 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="41" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="4.3046875" style="3" customWidth="1"/>
     <col min="3" max="3" width="5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="2.88671875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="3.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="2.84375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="3.3046875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.3046875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11.3046875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13.69140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.84375" style="3" customWidth="1"/>
     <col min="10" max="16384" width="10" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="47.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="47.15" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-    </row>
-    <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42" t="s">
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+    </row>
+    <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
       <c r="J3" s="7"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
@@ -958,7 +1015,7 @@
       <c r="D4" s="4"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
@@ -966,11 +1023,11 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -980,12 +1037,12 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="42" t="s">
+    <row r="7" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
       <c r="D7" s="5"/>
       <c r="E7" s="11"/>
       <c r="G7" s="12" t="s">
@@ -993,7 +1050,7 @@
       </c>
       <c r="H7" s="34"/>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="28"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1003,9 +1060,9 @@
       <c r="G8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="35"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H8" s="47"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="33"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -1015,7 +1072,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="33"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -1025,7 +1082,7 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1035,7 +1092,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="27"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1045,7 +1102,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1055,7 +1112,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1065,7 +1122,7 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="14" t="s">
         <v>7</v>
       </c>
@@ -1083,185 +1140,189 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="29"/>
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
       <c r="D16" s="39"/>
       <c r="E16" s="40"/>
-      <c r="F16" s="37"/>
+      <c r="F16" s="36"/>
       <c r="G16" s="31"/>
       <c r="H16" s="32"/>
     </row>
-    <row r="17" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="29"/>
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
       <c r="D17" s="39"/>
       <c r="E17" s="40"/>
-      <c r="F17" s="37"/>
+      <c r="F17" s="36"/>
       <c r="G17" s="31"/>
       <c r="H17" s="32"/>
     </row>
-    <row r="18" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="29"/>
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
       <c r="D18" s="39"/>
       <c r="E18" s="40"/>
-      <c r="F18" s="37"/>
+      <c r="F18" s="36"/>
       <c r="G18" s="31"/>
       <c r="H18" s="32"/>
     </row>
-    <row r="19" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="29"/>
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
       <c r="D19" s="39"/>
       <c r="E19" s="40"/>
-      <c r="F19" s="37"/>
+      <c r="F19" s="36"/>
       <c r="G19" s="31"/>
       <c r="H19" s="32"/>
     </row>
-    <row r="20" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="29"/>
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
       <c r="D20" s="39"/>
       <c r="E20" s="40"/>
-      <c r="F20" s="37"/>
+      <c r="F20" s="36"/>
       <c r="G20" s="31"/>
       <c r="H20" s="32"/>
     </row>
-    <row r="21" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="29"/>
       <c r="B21" s="30"/>
       <c r="C21" s="30"/>
       <c r="D21" s="39"/>
       <c r="E21" s="40"/>
-      <c r="F21" s="37"/>
+      <c r="F21" s="36"/>
       <c r="G21" s="31"/>
       <c r="H21" s="32"/>
     </row>
-    <row r="22" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="29"/>
       <c r="B22" s="30"/>
       <c r="C22" s="30"/>
       <c r="D22" s="39"/>
       <c r="E22" s="40"/>
-      <c r="F22" s="37"/>
+      <c r="F22" s="36"/>
       <c r="G22" s="31"/>
       <c r="H22" s="32"/>
     </row>
-    <row r="23" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="29"/>
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
       <c r="D23" s="39"/>
       <c r="E23" s="40"/>
-      <c r="F23" s="37"/>
+      <c r="F23" s="36"/>
       <c r="G23" s="31"/>
       <c r="H23" s="32"/>
     </row>
-    <row r="24" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="29"/>
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
       <c r="D24" s="39"/>
       <c r="E24" s="40"/>
-      <c r="F24" s="37"/>
+      <c r="F24" s="36"/>
       <c r="G24" s="31"/>
       <c r="H24" s="32"/>
     </row>
-    <row r="25" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="29"/>
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
       <c r="D25" s="39"/>
       <c r="E25" s="40"/>
-      <c r="F25" s="37"/>
+      <c r="F25" s="36"/>
       <c r="G25" s="31"/>
       <c r="H25" s="32"/>
     </row>
-    <row r="26" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="29"/>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
       <c r="D26" s="39"/>
       <c r="E26" s="40"/>
-      <c r="F26" s="37"/>
+      <c r="F26" s="36"/>
       <c r="G26" s="31"/>
       <c r="H26" s="32"/>
     </row>
-    <row r="27" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="29"/>
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
       <c r="D27" s="39"/>
       <c r="E27" s="40"/>
-      <c r="F27" s="37"/>
+      <c r="F27" s="36"/>
       <c r="G27" s="31"/>
       <c r="H27" s="32"/>
     </row>
-    <row r="28" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="29"/>
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
       <c r="D28" s="39"/>
       <c r="E28" s="40"/>
-      <c r="F28" s="37"/>
+      <c r="F28" s="36"/>
       <c r="G28" s="31"/>
       <c r="H28" s="32"/>
     </row>
-    <row r="29" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="29"/>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
       <c r="D29" s="39"/>
       <c r="E29" s="40"/>
-      <c r="F29" s="37"/>
+      <c r="F29" s="36"/>
       <c r="G29" s="31"/>
       <c r="H29" s="32"/>
     </row>
-    <row r="30" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="29"/>
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="D30" s="39"/>
       <c r="E30" s="40"/>
-      <c r="F30" s="37"/>
+      <c r="F30" s="36"/>
       <c r="G30" s="31"/>
       <c r="H30" s="32"/>
     </row>
-    <row r="31" spans="1:8" s="22" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="45"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="46" t="s">
+    <row r="31" spans="1:8" s="22" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="41"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="46"/>
-      <c r="H31" s="36">
+      <c r="G31" s="42"/>
+      <c r="H31" s="35">
         <f>SUM(H16:H30)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="23"/>
+    <row r="32" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="48" t="s">
+        <v>14</v>
+      </c>
       <c r="B32" s="24"/>
       <c r="C32" s="24"/>
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
-      <c r="F32" s="46" t="s">
+      <c r="F32" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="46"/>
-      <c r="H32" s="36"/>
-    </row>
-    <row r="33" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="23"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="35"/>
+    </row>
+    <row r="33" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="23" t="s">
+        <v>16</v>
+      </c>
       <c r="B33" s="24"/>
       <c r="C33" s="24"/>
       <c r="D33" s="24"/>
@@ -1270,8 +1331,10 @@
       <c r="G33" s="20"/>
       <c r="H33" s="21"/>
     </row>
-    <row r="34" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="23"/>
+    <row r="34" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="23" t="s">
+        <v>15</v>
+      </c>
       <c r="B34" s="24"/>
       <c r="C34" s="24"/>
       <c r="D34" s="24"/>
@@ -1280,12 +1343,12 @@
         <v>13</v>
       </c>
       <c r="G34" s="25"/>
-      <c r="H34" s="38">
+      <c r="H34" s="37">
         <f>SUM(H31:H32)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -1295,7 +1358,7 @@
       <c r="G35" s="26"/>
       <c r="H35" s="26"/>
     </row>
-    <row r="36" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -1305,28 +1368,40 @@
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
     </row>
-    <row r="37" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="47"/>
-      <c r="B37" s="47"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
-    </row>
-    <row r="38" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="44"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
+    <row r="37" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="43"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+    </row>
+    <row r="38" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="38"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="A38:H38"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D25:E25"/>
@@ -1339,18 +1414,6 @@
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="A37:H37"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{FC64F3BB-3BE7-4AA5-9AD5-3B493185AE41}">
@@ -1359,7 +1422,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.75" top="0.5" bottom="0.5" header="0.5" footer="0.25"/>
-  <pageSetup scale="98" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="93" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/templates/Invoice_Template.xlsx
+++ b/templates/Invoice_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amrin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584E4A77-898F-4791-B8EE-0C6885D1A064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C055FC-C2D4-41E9-AC5A-6D8EFECB8D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{F9D08C37-0EFD-4E51-8461-A00E374F23B6}"/>
   </bookViews>
@@ -113,7 +113,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-[$฿-41E]* #,##0_-;\-[$฿-41E]* #,##0_-;_-[$฿-41E]* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -482,8 +482,11 @@
     <xf numFmtId="164" fontId="17" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -493,15 +496,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -512,11 +506,17 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -959,8 +959,8 @@
   </sheetPr>
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -983,18 +983,18 @@
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
       <c r="J2" s="6"/>
@@ -1023,8 +1023,8 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
@@ -1038,11 +1038,11 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
       <c r="D7" s="5"/>
       <c r="E7" s="11"/>
       <c r="G7" s="12" t="s">
@@ -1060,7 +1060,7 @@
       <c r="G8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="47"/>
+      <c r="H8" s="38"/>
     </row>
     <row r="9" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="33"/>
@@ -1083,7 +1083,7 @@
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="5"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -1144,8 +1144,8 @@
       <c r="A16" s="29"/>
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="41"/>
       <c r="F16" s="36"/>
       <c r="G16" s="31"/>
       <c r="H16" s="32"/>
@@ -1154,8 +1154,8 @@
       <c r="A17" s="29"/>
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="41"/>
       <c r="F17" s="36"/>
       <c r="G17" s="31"/>
       <c r="H17" s="32"/>
@@ -1164,8 +1164,8 @@
       <c r="A18" s="29"/>
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="41"/>
       <c r="F18" s="36"/>
       <c r="G18" s="31"/>
       <c r="H18" s="32"/>
@@ -1174,8 +1174,8 @@
       <c r="A19" s="29"/>
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="41"/>
       <c r="F19" s="36"/>
       <c r="G19" s="31"/>
       <c r="H19" s="32"/>
@@ -1184,8 +1184,8 @@
       <c r="A20" s="29"/>
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="41"/>
       <c r="F20" s="36"/>
       <c r="G20" s="31"/>
       <c r="H20" s="32"/>
@@ -1194,8 +1194,8 @@
       <c r="A21" s="29"/>
       <c r="B21" s="30"/>
       <c r="C21" s="30"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="41"/>
       <c r="F21" s="36"/>
       <c r="G21" s="31"/>
       <c r="H21" s="32"/>
@@ -1204,8 +1204,8 @@
       <c r="A22" s="29"/>
       <c r="B22" s="30"/>
       <c r="C22" s="30"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="41"/>
       <c r="F22" s="36"/>
       <c r="G22" s="31"/>
       <c r="H22" s="32"/>
@@ -1214,8 +1214,8 @@
       <c r="A23" s="29"/>
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="41"/>
       <c r="F23" s="36"/>
       <c r="G23" s="31"/>
       <c r="H23" s="32"/>
@@ -1224,8 +1224,8 @@
       <c r="A24" s="29"/>
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="41"/>
       <c r="F24" s="36"/>
       <c r="G24" s="31"/>
       <c r="H24" s="32"/>
@@ -1234,8 +1234,8 @@
       <c r="A25" s="29"/>
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="41"/>
       <c r="F25" s="36"/>
       <c r="G25" s="31"/>
       <c r="H25" s="32"/>
@@ -1244,8 +1244,8 @@
       <c r="A26" s="29"/>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="41"/>
       <c r="F26" s="36"/>
       <c r="G26" s="31"/>
       <c r="H26" s="32"/>
@@ -1254,8 +1254,8 @@
       <c r="A27" s="29"/>
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="41"/>
       <c r="F27" s="36"/>
       <c r="G27" s="31"/>
       <c r="H27" s="32"/>
@@ -1264,8 +1264,8 @@
       <c r="A28" s="29"/>
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="41"/>
       <c r="F28" s="36"/>
       <c r="G28" s="31"/>
       <c r="H28" s="32"/>
@@ -1274,8 +1274,8 @@
       <c r="A29" s="29"/>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="41"/>
       <c r="F29" s="36"/>
       <c r="G29" s="31"/>
       <c r="H29" s="32"/>
@@ -1284,39 +1284,39 @@
       <c r="A30" s="29"/>
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="41"/>
       <c r="F30" s="36"/>
       <c r="G30" s="31"/>
       <c r="H30" s="32"/>
     </row>
     <row r="31" spans="1:8" s="22" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="41"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="42" t="s">
+      <c r="A31" s="46"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="42"/>
+      <c r="G31" s="47"/>
       <c r="H31" s="35">
         <f>SUM(H16:H30)</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="48" t="s">
+      <c r="A32" s="39" t="s">
         <v>14</v>
       </c>
       <c r="B32" s="24"/>
       <c r="C32" s="24"/>
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
-      <c r="F32" s="42" t="s">
+      <c r="F32" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="42"/>
+      <c r="G32" s="47"/>
       <c r="H32" s="35"/>
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1369,27 +1369,39 @@
       <c r="H36" s="11"/>
     </row>
     <row r="37" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="43"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
+      <c r="A37" s="48"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
     </row>
     <row r="38" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="38"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
+      <c r="A38" s="45"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="A37:H37"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="A2:C2"/>
@@ -1402,18 +1414,6 @@
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="A37:H37"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{FC64F3BB-3BE7-4AA5-9AD5-3B493185AE41}">
